--- a/inst/extdata/seqNdisplayR_sample_sheet_elaborate.xlsx
+++ b/inst/extdata/seqNdisplayR_sample_sheet_elaborate.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25003"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au530301_uni_au_dk/Documents/Vedhæftede filer/THJ LAB/Projects/seqNdisplayR/seqNdisplayR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{9C0F6BBB-8DEC-9D4D-9628-5B9A641A2ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{23411D9A-E26C-DD4B-93F9-052138A8FD23}"/>
+  <xr:revisionPtr revIDLastSave="37" documentId="8_{9C0F6BBB-8DEC-9D4D-9628-5B9A641A2ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9564688E-B027-3D4B-B887-A61B0C0BC610}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="35260" windowHeight="21940" firstSheet="3" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="460" windowWidth="35260" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLES" sheetId="1" r:id="rId1"/>
@@ -27,9 +27,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="236">
   <si>
     <t>fill_color</t>
   </si>
@@ -743,13 +741,16 @@
   </si>
   <si>
     <t>… (infinity number of subsamples are allowed, different levels are subgroupings are possible for different seqtypes and subsample groups, leave cells empty if not relevant</t>
+  </si>
+  <si>
+    <t>group_autoscale</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1179,15 +1180,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="90.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="89.875" customWidth="1"/>
+    <col min="3" max="3" width="90.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="89.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +1223,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="6"/>
       <c r="B2" t="s">
         <v>11</v>
@@ -1252,7 +1253,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="6"/>
       <c r="B3" t="s">
         <v>11</v>
@@ -1267,7 +1268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" t="s">
         <v>11</v>
@@ -1282,7 +1283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" t="s">
         <v>11</v>
@@ -1297,7 +1298,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="6"/>
       <c r="B6" t="s">
         <v>11</v>
@@ -1312,7 +1313,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="6"/>
       <c r="B7" t="s">
         <v>11</v>
@@ -1327,7 +1328,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" t="s">
         <v>25</v>
@@ -1345,7 +1346,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" t="s">
         <v>25</v>
@@ -1360,7 +1361,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" t="s">
         <v>25</v>
@@ -1375,7 +1376,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" t="s">
         <v>25</v>
@@ -1390,7 +1391,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" t="s">
         <v>25</v>
@@ -1405,7 +1406,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" t="s">
         <v>25</v>
@@ -1420,7 +1421,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" t="s">
         <v>11</v>
@@ -1441,7 +1442,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" t="s">
         <v>11</v>
@@ -1456,7 +1457,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="6"/>
       <c r="B16" t="s">
         <v>11</v>
@@ -1471,7 +1472,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="6"/>
       <c r="B17" t="s">
         <v>11</v>
@@ -1486,7 +1487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" t="s">
         <v>25</v>
@@ -1504,7 +1505,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" t="s">
         <v>25</v>
@@ -1519,7 +1520,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" t="s">
         <v>25</v>
@@ -1534,7 +1535,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:10">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" t="s">
         <v>25</v>
@@ -1549,7 +1550,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="6"/>
       <c r="B22" t="s">
         <v>11</v>
@@ -1573,7 +1574,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="6"/>
       <c r="B23" t="s">
         <v>11</v>
@@ -1588,7 +1589,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="6"/>
       <c r="B24" t="s">
         <v>11</v>
@@ -1603,7 +1604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="6"/>
       <c r="B25" t="s">
         <v>11</v>
@@ -1618,7 +1619,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="6"/>
       <c r="B26" t="s">
         <v>11</v>
@@ -1633,7 +1634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="6"/>
       <c r="B27" t="s">
         <v>11</v>
@@ -1648,7 +1649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="7"/>
       <c r="B28" t="s">
         <v>25</v>
@@ -1666,7 +1667,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" t="s">
         <v>25</v>
@@ -1681,7 +1682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="7"/>
       <c r="B30" t="s">
         <v>25</v>
@@ -1696,7 +1697,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="7"/>
       <c r="B31" t="s">
         <v>25</v>
@@ -1711,7 +1712,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="7"/>
       <c r="B32" t="s">
         <v>25</v>
@@ -1726,7 +1727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="7"/>
       <c r="B33" t="s">
         <v>25</v>
@@ -1741,7 +1742,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="6"/>
       <c r="B34" t="s">
         <v>11</v>
@@ -1762,7 +1763,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="6"/>
       <c r="B35" t="s">
         <v>11</v>
@@ -1777,7 +1778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="6"/>
       <c r="B36" t="s">
         <v>11</v>
@@ -1792,7 +1793,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="6"/>
       <c r="B37" t="s">
         <v>11</v>
@@ -1807,7 +1808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="7"/>
       <c r="B38" t="s">
         <v>25</v>
@@ -1825,7 +1826,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="7"/>
       <c r="B39" t="s">
         <v>25</v>
@@ -1840,7 +1841,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" s="7"/>
       <c r="B40" t="s">
         <v>25</v>
@@ -1855,7 +1856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" s="7"/>
       <c r="B41" t="s">
         <v>25</v>
@@ -1870,7 +1871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" t="s">
         <v>11</v>
@@ -1894,7 +1895,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" t="s">
         <v>11</v>
@@ -1909,7 +1910,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" t="s">
         <v>11</v>
@@ -1924,7 +1925,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" t="s">
         <v>11</v>
@@ -1939,7 +1940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" s="7"/>
       <c r="B46" t="s">
         <v>25</v>
@@ -1957,7 +1958,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" s="7"/>
       <c r="B47" t="s">
         <v>25</v>
@@ -1972,7 +1973,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" s="7"/>
       <c r="B48" t="s">
         <v>25</v>
@@ -1987,7 +1988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="7"/>
       <c r="B49" t="s">
         <v>25</v>
@@ -2002,7 +2003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="6"/>
       <c r="B50" t="s">
         <v>11</v>
@@ -2026,7 +2027,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="6"/>
       <c r="B51" t="s">
         <v>11</v>
@@ -2041,7 +2042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="6"/>
       <c r="B52" t="s">
         <v>11</v>
@@ -2056,7 +2057,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" s="6"/>
       <c r="B53" t="s">
         <v>11</v>
@@ -2071,7 +2072,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A54" s="7"/>
       <c r="B54" t="s">
         <v>25</v>
@@ -2089,7 +2090,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="7"/>
       <c r="B55" t="s">
         <v>25</v>
@@ -2104,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" s="7"/>
       <c r="B56" t="s">
         <v>25</v>
@@ -2119,7 +2120,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="7"/>
       <c r="B57" t="s">
         <v>25</v>
@@ -2134,7 +2135,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="58" spans="1:8">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" s="8"/>
       <c r="B58" t="s">
         <v>81</v>
@@ -2158,7 +2159,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="59" spans="1:8">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" s="8"/>
       <c r="B59" t="s">
         <v>81</v>
@@ -2189,16 +2190,19 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1C8C505-D57F-9C4B-B17A-20D6567392D2}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="20.875" customWidth="1"/>
+    <col min="1" max="11" width="20.83203125" customWidth="1"/>
+    <col min="12" max="12" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>6</v>
       </c>
@@ -2232,8 +2236,11 @@
       <c r="K1" s="4" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="4" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>15</v>
       </c>
@@ -2267,8 +2274,11 @@
       <c r="K2" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>63</v>
       </c>
@@ -2302,8 +2312,11 @@
       <c r="K3" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>73</v>
       </c>
@@ -2337,8 +2350,11 @@
       <c r="K4" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>84</v>
       </c>
@@ -2371,6 +2387,9 @@
       </c>
       <c r="K5" t="b">
         <v>0</v>
+      </c>
+      <c r="L5" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2381,24 +2400,24 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="99" customWidth="1"/>
-    <col min="3" max="3" width="23.625" customWidth="1"/>
+    <col min="3" max="3" width="23.6640625" customWidth="1"/>
     <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="20.375" customWidth="1"/>
-    <col min="6" max="6" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="20.33203125" customWidth="1"/>
+    <col min="6" max="6" width="21.1640625" customWidth="1"/>
     <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>100</v>
       </c>
@@ -2420,8 +2439,11 @@
       <c r="G1" s="13" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" s="13" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>107</v>
       </c>
@@ -2443,8 +2465,11 @@
       <c r="G2" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>110</v>
       </c>
@@ -2466,8 +2491,11 @@
       <c r="G3" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>112</v>
       </c>
@@ -2488,6 +2516,9 @@
       </c>
       <c r="G4" t="s">
         <v>109</v>
+      </c>
+      <c r="H4" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -2505,18 +2536,18 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:C71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0">
+    <sheetView zoomScale="101" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="28.375" customWidth="1"/>
+    <col min="1" max="1" width="28.33203125" customWidth="1"/>
     <col min="2" max="2" width="23" style="3" customWidth="1"/>
     <col min="3" max="3" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
@@ -2527,7 +2558,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>117</v>
       </c>
@@ -2535,7 +2566,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>118</v>
       </c>
@@ -2543,7 +2574,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -2551,7 +2582,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>121</v>
       </c>
@@ -2559,7 +2590,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>123</v>
       </c>
@@ -2567,7 +2598,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>124</v>
       </c>
@@ -2575,7 +2606,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>106</v>
       </c>
@@ -2583,7 +2614,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -2591,7 +2622,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -2599,7 +2630,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>130</v>
       </c>
@@ -2607,7 +2638,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>132</v>
       </c>
@@ -2615,7 +2646,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>133</v>
       </c>
@@ -2623,7 +2654,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>134</v>
       </c>
@@ -2631,7 +2662,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>135</v>
       </c>
@@ -2639,7 +2670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>136</v>
       </c>
@@ -2647,7 +2678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>137</v>
       </c>
@@ -2655,7 +2686,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>139</v>
       </c>
@@ -2663,7 +2694,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>140</v>
       </c>
@@ -2671,7 +2702,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>141</v>
       </c>
@@ -2679,7 +2710,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -2687,7 +2718,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>144</v>
       </c>
@@ -2698,7 +2729,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>147</v>
       </c>
@@ -2706,7 +2737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>148</v>
       </c>
@@ -2714,7 +2745,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>149</v>
       </c>
@@ -2722,7 +2753,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>150</v>
       </c>
@@ -2730,7 +2761,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>151</v>
       </c>
@@ -2738,7 +2769,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>152</v>
       </c>
@@ -2746,7 +2777,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>153</v>
       </c>
@@ -2754,7 +2785,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>154</v>
       </c>
@@ -2762,7 +2793,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>155</v>
       </c>
@@ -2770,7 +2801,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>156</v>
       </c>
@@ -2778,7 +2809,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>158</v>
       </c>
@@ -2786,7 +2817,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>159</v>
       </c>
@@ -2797,7 +2828,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>161</v>
       </c>
@@ -2805,7 +2836,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>162</v>
       </c>
@@ -2813,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>163</v>
       </c>
@@ -2821,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>164</v>
       </c>
@@ -2829,7 +2860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>165</v>
       </c>
@@ -2837,7 +2868,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>166</v>
       </c>
@@ -2845,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>167</v>
       </c>
@@ -2853,7 +2884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>168</v>
       </c>
@@ -2861,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>169</v>
       </c>
@@ -2869,7 +2900,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>170</v>
       </c>
@@ -2877,7 +2908,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>171</v>
       </c>
@@ -2885,7 +2916,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>173</v>
       </c>
@@ -2893,7 +2924,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>175</v>
       </c>
@@ -2901,7 +2932,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>176</v>
       </c>
@@ -2909,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>177</v>
       </c>
@@ -2917,7 +2948,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>178</v>
       </c>
@@ -2925,7 +2956,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>179</v>
       </c>
@@ -2933,7 +2964,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>180</v>
       </c>
@@ -2941,7 +2972,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>181</v>
       </c>
@@ -2949,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>182</v>
       </c>
@@ -2957,7 +2988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>183</v>
       </c>
@@ -2965,7 +2996,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>184</v>
       </c>
@@ -2973,7 +3004,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>186</v>
       </c>
@@ -2981,7 +3012,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>187</v>
       </c>
@@ -2989,7 +3020,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>188</v>
       </c>
@@ -2997,7 +3028,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>190</v>
       </c>
@@ -3005,7 +3036,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>192</v>
       </c>
@@ -3013,7 +3044,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>193</v>
       </c>
@@ -3021,7 +3052,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>195</v>
       </c>
@@ -3029,7 +3060,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>196</v>
       </c>
@@ -3037,7 +3068,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>198</v>
       </c>
@@ -3045,7 +3076,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>200</v>
       </c>
@@ -3053,7 +3084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>201</v>
       </c>
@@ -3061,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>202</v>
       </c>
@@ -3069,7 +3100,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>204</v>
       </c>
@@ -3077,7 +3108,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>206</v>
       </c>
@@ -3085,7 +3116,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>208</v>
       </c>
@@ -3101,33 +3132,33 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="4" width="16.125" customWidth="1"/>
+    <col min="3" max="4" width="16.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>213</v>
       </c>
@@ -3135,12 +3166,12 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" t="s">
         <v>216</v>
       </c>
@@ -3151,7 +3182,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D8" t="s">
         <v>219</v>
       </c>
@@ -3159,7 +3190,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D9" t="s">
         <v>221</v>
       </c>
@@ -3167,7 +3198,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D10" t="s">
         <v>4</v>
       </c>
@@ -3175,7 +3206,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D11" t="s">
         <v>5</v>
       </c>
@@ -3183,7 +3214,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>225</v>
       </c>
@@ -3191,7 +3222,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C13" t="s">
         <v>227</v>
       </c>
@@ -3199,7 +3230,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D14" t="s">
         <v>229</v>
       </c>
@@ -3207,7 +3238,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D15" t="s">
         <v>231</v>
       </c>
@@ -3215,7 +3246,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="D16" t="s">
         <v>233</v>
       </c>
@@ -3223,8 +3254,6 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" customFormat="1"/>
-    <row r="41" customFormat="1"/>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/inst/extdata/seqNdisplayR_sample_sheet_elaborate.xlsx
+++ b/inst/extdata/seqNdisplayR_sample_sheet_elaborate.xlsx
@@ -1,26 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10313"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au530301_uni_au_dk/Documents/Vedhæftede filer/THJ LAB/Projects/seqNdisplayR/seqNdisplayR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{9C0F6BBB-8DEC-9D4D-9628-5B9A641A2ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9564688E-B027-3D4B-B887-A61B0C0BC610}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="8_{9C0F6BBB-8DEC-9D4D-9628-5B9A641A2ACB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22D8B912-FB8A-BC40-AFF8-4DFB7AC2C310}"/>
   <bookViews>
-    <workbookView xWindow="200" yWindow="460" windowWidth="35260" windowHeight="21940" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="200" yWindow="500" windowWidth="35260" windowHeight="21900" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLES" sheetId="1" r:id="rId1"/>
     <sheet name="DATASET_OPTIONS" sheetId="8" r:id="rId2"/>
     <sheet name="ANNOTATIONS" sheetId="5" r:id="rId3"/>
     <sheet name="GLOBAL_OPTIONS" sheetId="7" r:id="rId4"/>
-    <sheet name="README" sheetId="6" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">GLOBAL_OPTIONS!$A$1:$C$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">GLOBAL_OPTIONS!$A$1:$B$73</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="208">
   <si>
     <t>fill_color</t>
   </si>
@@ -386,12 +385,6 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Info</t>
-  </si>
-  <si>
-    <t xml:space="preserve">actual_strand_direction </t>
-  </si>
-  <si>
     <t>alternating_background</t>
   </si>
   <si>
@@ -476,9 +469,6 @@
     <t>steelblue,hotpink</t>
   </si>
   <si>
-    <t>#NULL, single number, vector of length 2 or number of panels or a list</t>
-  </si>
-  <si>
     <t xml:space="preserve">fixed_panel_width </t>
   </si>
   <si>
@@ -518,9 +508,6 @@
     <t xml:space="preserve">horizontal_panels_list </t>
   </si>
   <si>
-    <t>#NULL or named list;ie horizontal_panels_list = list(“RNA-seq”=c(F,F), “3-seq”=c(F,T,F,F))</t>
-  </si>
-  <si>
     <t xml:space="preserve">horizontal_spacers </t>
   </si>
   <si>
@@ -668,82 +655,10 @@
     <t>normal</t>
   </si>
   <si>
-    <t>This Excel template aims to facilitate the input of your datasets in the plotting function, it however has some limitations of structure, should your dataset have a complex sturcture not compatible with this import function, please generate the input manually</t>
-  </si>
-  <si>
-    <t>Limitations / usage of this template:</t>
-  </si>
-  <si>
-    <t>x Sheets:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Samples: </t>
-  </si>
-  <si>
-    <t>contains track information</t>
-  </si>
-  <si>
-    <t>either name this sheet Samples or keep as first</t>
-  </si>
-  <si>
-    <t>required columns:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">color </t>
-  </si>
-  <si>
-    <t>column needs to be present, but if leave it empty, will cause track to be displayed in black. Hex code or any name representation usable as color in R is possible. Ups: Named colors wont display correctly in the Excel sheet.</t>
-  </si>
-  <si>
-    <t>bw_dirs</t>
-  </si>
-  <si>
-    <t>column needs to be present, only one bw_dir by seqtypes is allowed, can be left empty and included in bw_names</t>
-  </si>
-  <si>
-    <t>bw_names</t>
-  </si>
-  <si>
-    <t>every row must have a bw_name associated. Multiple rows are allowed per samples, than the bigwigs are assumed replicates from the same sample.</t>
-  </si>
-  <si>
-    <t>['plus', 'minus' or leave empty] column needs to be present, but if leave it empty, will assume strand plus, if not minus strand bw present, will assume unstranded</t>
-  </si>
-  <si>
-    <t>column needs to be present, but if leave it empty, will assume all samples are from same batch</t>
-  </si>
-  <si>
-    <t>seqtypes</t>
-  </si>
-  <si>
-    <t>a identifier of sample grouping, if all samples are independent add sample names here</t>
-  </si>
-  <si>
-    <t>optional columns:</t>
-  </si>
-  <si>
-    <t>replicate (not used by seqNdisplayR at the moment)</t>
-  </si>
-  <si>
-    <t>subsample1</t>
-  </si>
-  <si>
-    <t>a identifier of sample sub-grouping, if all samples are independent add sample names here</t>
-  </si>
-  <si>
-    <t>subsample2</t>
-  </si>
-  <si>
-    <t>a identifier of sample sub-sub-grouping, if all samples are independent add sample names here</t>
-  </si>
-  <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>… (infinity number of subsamples are allowed, different levels are subgroupings are possible for different seqtypes and subsample groups, leave cells empty if not relevant</t>
-  </si>
-  <si>
     <t>group_autoscale</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reverse_strand_direction </t>
   </si>
 </sst>
 </file>
@@ -825,7 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -848,7 +763,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2192,203 +2116,202 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="11" width="20.83203125" customWidth="1"/>
-    <col min="12" max="12" width="16.1640625" customWidth="1"/>
+    <col min="1" max="12" width="17.83203125" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="L1" s="4" t="s">
-        <v>235</v>
+      <c r="L1" s="13" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="b">
-        <v>0</v>
-      </c>
-      <c r="H2" t="b">
-        <v>1</v>
-      </c>
-      <c r="I2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="D2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14">
+        <v>1</v>
+      </c>
+      <c r="F2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J2" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="K2" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" t="b">
+      <c r="K2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="b">
-        <v>0</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="s">
+      <c r="D3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H3" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="K3" t="b">
-        <v>0</v>
-      </c>
-      <c r="L3" t="b">
+      <c r="K3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L3" s="14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="s">
+      <c r="D4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="K4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="b">
+      <c r="K4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L4" s="14" t="b">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="D5" t="b">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="b">
-        <v>0</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="s">
+      <c r="D5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="14">
+        <v>1</v>
+      </c>
+      <c r="F5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="H5" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="K5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="b">
+      <c r="K5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="L5" s="14" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2403,122 +2326,118 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
+    <col min="1" max="1" width="17.83203125" style="15" customWidth="1"/>
     <col min="2" max="2" width="99" customWidth="1"/>
-    <col min="3" max="3" width="23.6640625" customWidth="1"/>
-    <col min="4" max="4" width="24" customWidth="1"/>
-    <col min="5" max="5" width="20.33203125" customWidth="1"/>
-    <col min="6" max="6" width="21.1640625" customWidth="1"/>
-    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="3" max="8" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="13" t="s">
         <v>100</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="16" t="s">
         <v>106</v>
       </c>
-      <c r="H1" s="13" t="s">
-        <v>119</v>
+      <c r="H1" s="16" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="15" t="s">
         <v>107</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" t="b">
-        <v>0</v>
-      </c>
-      <c r="F2" t="b">
-        <v>0</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="C2" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F2" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G2" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="H2" t="s">
-        <v>120</v>
+      <c r="H2" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="15" t="s">
         <v>110</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C3" t="b">
-        <v>1</v>
-      </c>
-      <c r="D3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E3" t="b">
-        <v>0</v>
-      </c>
-      <c r="F3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
+      <c r="C3" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F3" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="14" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="15" t="s">
         <v>112</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C4" t="b">
-        <v>0</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="b">
-        <v>0</v>
-      </c>
-      <c r="F4" t="b">
-        <v>0</v>
-      </c>
-      <c r="G4" t="s">
+      <c r="C4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="D4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="H4" t="s">
-        <v>120</v>
+      <c r="H4" s="14" t="s">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2534,47 +2453,41 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView zoomScale="101" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="101" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28.33203125" customWidth="1"/>
     <col min="2" max="2" width="23" style="3" customWidth="1"/>
-    <col min="3" max="3" width="76" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>114</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="5" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="B2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>117</v>
       </c>
-      <c r="B2" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B3" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>119</v>
       </c>
@@ -2582,39 +2495,39 @@
         <v>120</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>121</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="B6" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>124</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>126</v>
       </c>
@@ -2622,7 +2535,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>128</v>
       </c>
@@ -2630,87 +2543,87 @@
         <v>129</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>130</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="B12" s="3">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>132</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="B13" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>133</v>
       </c>
-      <c r="B13" s="3">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B14" s="11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>134</v>
       </c>
-      <c r="B14" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="B15" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>135</v>
       </c>
-      <c r="B15" s="11" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="B16" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="B16" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>137</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="B18" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>139</v>
       </c>
-      <c r="B18" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="B19" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>140</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="B20" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="B20" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>142</v>
       </c>
@@ -2718,231 +2631,225 @@
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>144</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>145</v>
       </c>
-      <c r="C22" t="s">
+      <c r="B23" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>147</v>
-      </c>
-      <c r="B23" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>148</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
+        <v>148</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>149</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B28" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>151</v>
+      </c>
+      <c r="B29" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B30" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>151</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>152</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>153</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B32" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>154</v>
-      </c>
-      <c r="B30" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>155</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
         <v>156</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>158</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>157</v>
+      </c>
+      <c r="B34" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B35" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
         <v>159</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B36" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>161</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B39" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>163</v>
+      </c>
+      <c r="B40" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>164</v>
+      </c>
+      <c r="B41" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>165</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="C34" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>161</v>
-      </c>
-      <c r="B35" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>162</v>
-      </c>
-      <c r="B36" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>163</v>
-      </c>
-      <c r="B37" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>164</v>
-      </c>
-      <c r="B38" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>165</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
         <v>166</v>
-      </c>
-      <c r="B40" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>167</v>
-      </c>
-      <c r="B41" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>168</v>
-      </c>
-      <c r="B42" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>169</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>167</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>169</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B44" s="3" t="s">
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>173</v>
+      </c>
+      <c r="B48" s="3" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>173</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>175</v>
-      </c>
-      <c r="B47" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>176</v>
-      </c>
-      <c r="B48" s="3" t="b">
-        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>97</v>
@@ -2950,7 +2857,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>97</v>
@@ -2958,7 +2865,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>97</v>
@@ -2966,15 +2873,15 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>180</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>97</v>
+        <v>177</v>
+      </c>
+      <c r="B52" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B53" s="3" t="b">
         <v>0</v>
@@ -2982,31 +2889,31 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>182</v>
-      </c>
-      <c r="B54" s="3" t="b">
-        <v>0</v>
+        <v>179</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>183</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>97</v>
+        <v>207</v>
+      </c>
+      <c r="B55" s="3" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>97</v>
@@ -3014,47 +2921,47 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>97</v>
@@ -3062,23 +2969,23 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B66" s="3" t="b">
         <v>1</v>
@@ -3086,7 +2993,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B67" s="3" t="b">
         <v>0</v>
@@ -3094,168 +3001,37 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:E16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="3" max="4" width="16.1640625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C6" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C7" t="s">
-        <v>216</v>
-      </c>
-      <c r="D7" t="s">
-        <v>217</v>
-      </c>
-      <c r="E7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D8" t="s">
-        <v>219</v>
-      </c>
-      <c r="E8" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D9" t="s">
-        <v>221</v>
-      </c>
-      <c r="E9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D12" t="s">
-        <v>225</v>
-      </c>
-      <c r="E12" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D14" t="s">
-        <v>229</v>
-      </c>
-      <c r="E14" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D15" t="s">
-        <v>231</v>
-      </c>
-      <c r="E15" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="D16" t="s">
-        <v>233</v>
-      </c>
-      <c r="E16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/inst/extdata/seqNdisplayR_sample_sheet_elaborate.xlsx
+++ b/inst/extdata/seqNdisplayR_sample_sheet_elaborate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au530301_uni_au_dk/Documents/Vedhæftede filer/THJ LAB/Projects/seqNdisplayR/seqNdisplayR/inst/extdata/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au103725/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{B97B57C8-B291-8847-9459-4A6E6B3F5DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC648BF-B02B-B649-917E-30ACCC9C9769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="35060" windowHeight="23060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9520" yWindow="-28280" windowWidth="38700" windowHeight="23920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLES" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="216">
   <si>
     <t>color</t>
   </si>
@@ -46,22 +46,103 @@
     <t>subgroup_1</t>
   </si>
   <si>
+    <t>subgroup_2</t>
+  </si>
+  <si>
+    <t>subgroup_3</t>
+  </si>
+  <si>
     <t>#505160</t>
   </si>
   <si>
     <t>http://genome-ftp.mbg.au.dk/public/THJ/seqNdisplayR/examples/tracks/HeLa_3pseq/</t>
   </si>
   <si>
+    <t>siGFP_noPAP_in_batch1_plus.bw</t>
+  </si>
+  <si>
+    <t>plus</t>
+  </si>
+  <si>
+    <t>3-seq</t>
+  </si>
+  <si>
+    <t>-PAP</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>siCTRL</t>
+  </si>
+  <si>
+    <t>siGFP_noPAP_in_batch2_plus.bw</t>
+  </si>
+  <si>
+    <t>siGFP_noPAP_in_batch3_plus.bw</t>
+  </si>
+  <si>
+    <t>siGFP_noPAP_in_batch1_minus.bw</t>
+  </si>
+  <si>
+    <t>minus</t>
+  </si>
+  <si>
+    <t>siGFP_noPAP_in_batch2_minus.bw</t>
+  </si>
+  <si>
+    <t>siGFP_noPAP_in_batch3_minus.bw</t>
+  </si>
+  <si>
+    <t>#68829E</t>
+  </si>
+  <si>
+    <t>siRRP40_noPAP_in_batch1_plus.bw</t>
+  </si>
+  <si>
+    <t>siEXOSC3</t>
+  </si>
+  <si>
+    <t>siRRP40_noPAP_in_batch3_plus.bw</t>
+  </si>
+  <si>
+    <t>siRRP40_noPAP_in_batch1_minus.bw</t>
+  </si>
+  <si>
+    <t>siRRP40_noPAP_in_batch3_minus.bw</t>
+  </si>
+  <si>
+    <t>siGFP_noPAP_ip_batch1_plus.bw</t>
+  </si>
+  <si>
+    <t>4sU</t>
+  </si>
+  <si>
+    <t>siGFP_noPAP_ip_batch3_plus.bw</t>
+  </si>
+  <si>
+    <t>siGFP_noPAP_ip_batch1_minus.bw</t>
+  </si>
+  <si>
+    <t>siGFP_noPAP_ip_batch3_minus.bw</t>
+  </si>
+  <si>
+    <t>siRRP40_noPAP_ip_batch1_plus.bw</t>
+  </si>
+  <si>
+    <t>siRRP40_noPAP_ip_batch3_plus.bw</t>
+  </si>
+  <si>
+    <t>siRRP40_noPAP_ip_batch1_minus.bw</t>
+  </si>
+  <si>
+    <t>siRRP40_noPAP_ip_batch3_minus.bw</t>
+  </si>
+  <si>
     <t>siGFP_xPAP_in_batch1_plus.bw</t>
   </si>
   <si>
-    <t>plus</t>
-  </si>
-  <si>
-    <t>3-seq</t>
-  </si>
-  <si>
-    <t>siCTRL</t>
+    <t>+PAP</t>
   </si>
   <si>
     <t>siGFP_xPAP_in_batch2_plus.bw</t>
@@ -73,24 +154,15 @@
     <t>siGFP_xPAP_in_batch1_minus.bw</t>
   </si>
   <si>
-    <t>minus</t>
-  </si>
-  <si>
     <t>siGFP_xPAP_in_batch2_minus.bw</t>
   </si>
   <si>
     <t>siGFP_xPAP_in_batch3_minus.bw</t>
   </si>
   <si>
-    <t>#68829E</t>
-  </si>
-  <si>
     <t>siRRP40_xPAP_in_batch1_plus.bw</t>
   </si>
   <si>
-    <t>siEXOSC3</t>
-  </si>
-  <si>
     <t>siRRP40_xPAP_in_batch3_plus.bw</t>
   </si>
   <si>
@@ -100,6 +172,30 @@
     <t>siRRP40_xPAP_in_batch3_minus.bw</t>
   </si>
   <si>
+    <t>siGFP_xPAP_ip_batch1_plus.bw</t>
+  </si>
+  <si>
+    <t>siGFP_xPAP_ip_batch3_plus.bw</t>
+  </si>
+  <si>
+    <t>siGFP_xPAP_ip_batch1_minus.bw</t>
+  </si>
+  <si>
+    <t>siGFP_xPAP_ip_batch3_minus.bw</t>
+  </si>
+  <si>
+    <t>siRRP40_xPAP_ip_batch1_plus.bw</t>
+  </si>
+  <si>
+    <t>siRRP40_xPAP_ip_batch3_plus.bw</t>
+  </si>
+  <si>
+    <t>siRRP40_xPAP_ip_batch1_minus.bw</t>
+  </si>
+  <si>
+    <t>siRRP40_xPAP_ip_batch3_minus.bw</t>
+  </si>
+  <si>
     <t>http://genome-ftp.mbg.au.dk/public/THJ/seqNdisplayR/examples/tracks/HeLa_TTseq/</t>
   </si>
   <si>
@@ -214,30 +310,27 @@
     <t>whichSamples</t>
   </si>
   <si>
-    <t>max</t>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1,2,3,1,2,3,1,3,1,3,1,2,3,1,2,3,1,3,1,3</t>
+  </si>
+  <si>
+    <t>NULL</t>
   </si>
   <si>
     <t>TRUE</t>
   </si>
   <si>
-    <t>FALSE</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1,2,3,1,2,3</t>
-  </si>
-  <si>
-    <t>NULL</t>
-  </si>
-  <si>
     <t>NA,NA</t>
   </si>
   <si>
-    <t>mean</t>
-  </si>
-  <si>
     <t>1,2,2,2</t>
   </si>
   <si>
@@ -415,7 +508,7 @@
     <t>horizontal_panels_list</t>
   </si>
   <si>
-    <t>3-seq:TRUE,TRUE;TT-seq:TRUE,TRUE;RNA-seq:TRUE,TRUE;ChIP-seq:TRUE,TRUE</t>
+    <t>3-seq:TRUE,TRUE,TRUE,TRUE;TT-seq:TRUE,TRUE;RNA-seq:TRUE,TRUE;ChIP-seq:TRUE,TRUE</t>
   </si>
   <si>
     <t>horizontal_spacers</t>
@@ -939,9 +1032,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -951,10 +1046,10 @@
     <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -976,464 +1071,898 @@
       <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="G8" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="I8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E10">
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E12">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E13">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15" t="s">
-        <v>10</v>
-      </c>
       <c r="E15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E18">
-        <v>2</v>
-      </c>
-      <c r="G18" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B22" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E22">
         <v>1</v>
       </c>
-      <c r="F22" t="s">
-        <v>37</v>
-      </c>
       <c r="G22" t="s">
+        <v>39</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" t="s">
         <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" t="s">
-        <v>10</v>
       </c>
       <c r="E23">
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E24">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E26">
         <v>2</v>
       </c>
-      <c r="G26" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+        <v>1</v>
+      </c>
+      <c r="I28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E29">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>45</v>
-      </c>
-      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" t="s">
         <v>46</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
+        <v>12</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
         <v>47</v>
       </c>
-      <c r="D30" t="s">
-        <v>10</v>
-      </c>
-      <c r="F30" t="s">
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>43</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
         <v>48</v>
       </c>
-      <c r="G30" t="s">
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>45</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D34" t="s">
+        <v>12</v>
+      </c>
+      <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="H34" t="s">
+        <v>30</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
         <v>50</v>
       </c>
-      <c r="D31" t="s">
-        <v>10</v>
+      <c r="D35" t="s">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="I38" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>12</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="E40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" t="s">
+        <v>58</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G42" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>12</v>
+      </c>
+      <c r="E43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>62</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D46" t="s">
+        <v>12</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="G46" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" t="s">
+        <v>64</v>
+      </c>
+      <c r="D47" t="s">
+        <v>12</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>23</v>
+      </c>
+      <c r="C49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>9</v>
+      </c>
+      <c r="B50" t="s">
+        <v>67</v>
+      </c>
+      <c r="C50" t="s">
+        <v>68</v>
+      </c>
+      <c r="D50" t="s">
+        <v>12</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50" t="s">
+        <v>69</v>
+      </c>
+      <c r="G50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>70</v>
+      </c>
+      <c r="D51" t="s">
+        <v>12</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>71</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>72</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" t="s">
+        <v>73</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="G54" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D55" t="s">
+        <v>12</v>
+      </c>
+      <c r="E55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" t="s">
+        <v>75</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" t="s">
+        <v>76</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>77</v>
+      </c>
+      <c r="B58" t="s">
+        <v>78</v>
+      </c>
+      <c r="C58" t="s">
+        <v>79</v>
+      </c>
+      <c r="D58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>77</v>
+      </c>
+      <c r="C59" t="s">
+        <v>82</v>
+      </c>
+      <c r="D59" t="s">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1457,7 +1986,7 @@
     <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.5" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8.6640625" bestFit="1" customWidth="1"/>
@@ -1472,219 +2001,219 @@
         <v>5</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>84</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>53</v>
+        <v>85</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="F2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="H2" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="I2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="K2" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="L2" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="M2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="N2" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="I3" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="K3" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="L3" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="M3" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="N3" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="F4" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="H4" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="N4" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="B5" t="s">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D5" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="F5" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="G5" t="s">
-        <v>71</v>
+        <v>102</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
       <c r="I5" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="K5" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="L5" t="s">
-        <v>69</v>
+        <v>101</v>
       </c>
       <c r="M5" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="N5" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -1713,106 +2242,106 @@
   <sheetData>
     <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>74</v>
+        <v>105</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>75</v>
+        <v>106</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>78</v>
+        <v>109</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>79</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="F2" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="G2" t="s">
-        <v>82</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>84</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="C3" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="D3" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E3" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="F3" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="G3" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>88</v>
+        <v>119</v>
       </c>
       <c r="C4" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="D4" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="E4" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
       <c r="G4" t="s">
-        <v>86</v>
+        <v>117</v>
       </c>
       <c r="H4" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -1824,580 +2353,582 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B71"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="60.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="69.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>90</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>93</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>95</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>128</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>101</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>103</v>
+        <v>134</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>107</v>
+        <v>138</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>109</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>110</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>112</v>
+        <v>143</v>
       </c>
       <c r="B16" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>113</v>
+        <v>144</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>116</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>121</v>
+        <v>152</v>
       </c>
       <c r="B24" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>123</v>
+        <v>154</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="B29" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>128</v>
+        <v>159</v>
       </c>
       <c r="B30" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>129</v>
+        <v>160</v>
       </c>
       <c r="B31" t="s">
-        <v>130</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>131</v>
+        <v>162</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>132</v>
+        <v>163</v>
       </c>
       <c r="B33" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="B34" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
       <c r="B35" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>135</v>
+        <v>166</v>
       </c>
       <c r="B36" t="s">
-        <v>136</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>168</v>
       </c>
       <c r="B37" t="s">
-        <v>115</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="B38" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>170</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>171</v>
       </c>
       <c r="B40" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>172</v>
       </c>
       <c r="B41" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>173</v>
       </c>
       <c r="B42" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>174</v>
       </c>
       <c r="B43" t="s">
-        <v>144</v>
+        <v>175</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>176</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>178</v>
       </c>
       <c r="B45" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>148</v>
+        <v>179</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>149</v>
+        <v>180</v>
       </c>
       <c r="B47" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>150</v>
+        <v>181</v>
       </c>
       <c r="B48" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>151</v>
+        <v>182</v>
       </c>
       <c r="B49" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="B50" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>153</v>
+        <v>184</v>
       </c>
       <c r="B51" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>154</v>
+        <v>185</v>
       </c>
       <c r="B52" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>155</v>
+        <v>186</v>
       </c>
       <c r="B53" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>156</v>
+        <v>187</v>
       </c>
       <c r="B54" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>157</v>
+        <v>188</v>
       </c>
       <c r="B55" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>158</v>
+        <v>189</v>
       </c>
       <c r="B56" t="s">
-        <v>159</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>191</v>
       </c>
       <c r="B57" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>192</v>
       </c>
       <c r="B58" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>162</v>
+        <v>193</v>
       </c>
       <c r="B59" t="s">
-        <v>163</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>164</v>
+        <v>195</v>
       </c>
       <c r="B60" t="s">
-        <v>165</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>166</v>
+        <v>197</v>
       </c>
       <c r="B61" t="s">
-        <v>167</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>168</v>
+        <v>199</v>
       </c>
       <c r="B62" t="s">
-        <v>169</v>
+        <v>200</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>170</v>
+        <v>201</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>99</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>202</v>
       </c>
       <c r="B64" t="s">
-        <v>172</v>
+        <v>203</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>204</v>
       </c>
       <c r="B65" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>175</v>
+        <v>206</v>
       </c>
       <c r="B66" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>176</v>
+        <v>207</v>
       </c>
       <c r="B67" t="s">
-        <v>65</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>177</v>
+        <v>208</v>
       </c>
       <c r="B68" t="s">
-        <v>178</v>
+        <v>209</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>179</v>
+        <v>210</v>
       </c>
       <c r="B69" t="s">
-        <v>180</v>
+        <v>211</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>181</v>
+        <v>212</v>
       </c>
       <c r="B70" t="s">
-        <v>182</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>183</v>
+        <v>214</v>
       </c>
       <c r="B71" t="s">
-        <v>184</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/seqNdisplayR_sample_sheet_elaborate.xlsx
+++ b/inst/extdata/seqNdisplayR_sample_sheet_elaborate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au103725/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC648BF-B02B-B649-917E-30ACCC9C9769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAB0526-0FED-C84E-9E8F-DD6B269004B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-28280" windowWidth="38700" windowHeight="23920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9740" yWindow="-28300" windowWidth="37600" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLES" sheetId="1" r:id="rId1"/>
@@ -508,7 +508,7 @@
     <t>horizontal_panels_list</t>
   </si>
   <si>
-    <t>3-seq:TRUE,TRUE,TRUE,TRUE;TT-seq:TRUE,TRUE;RNA-seq:TRUE,TRUE;ChIP-seq:TRUE,TRUE</t>
+    <t>3-seq:TRUE,FALSE,FALSE,TRUE;TT-seq:TRUE,TRUE;RNA-seq:TRUE,TRUE;ChIP-seq:TRUE,TRUE</t>
   </si>
   <si>
     <t>horizontal_spacers</t>
@@ -2360,7 +2360,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="26.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="69.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">

--- a/inst/extdata/seqNdisplayR_sample_sheet_elaborate.xlsx
+++ b/inst/extdata/seqNdisplayR_sample_sheet_elaborate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/au103725/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://aarhusuniversitet-my.sharepoint.com/personal/au530301_uni_au_dk/Documents/Vedhæftede filer/THJ LAB/Projects/seqNdisplayR/seqNdisplayR/inst/extdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FAB0526-0FED-C84E-9E8F-DD6B269004B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{9140B3AB-2FC2-8B48-8275-FF91E025383F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9740" yWindow="-28300" windowWidth="37600" windowHeight="17040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-9740" yWindow="-28300" windowWidth="37600" windowHeight="17040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAMPLES" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="216">
   <si>
     <t>color</t>
   </si>
@@ -720,13 +720,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1034,7 +1037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -1974,9 +1977,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:N1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -2047,8 +2048,8 @@
       <c r="B2" t="s">
         <v>95</v>
       </c>
-      <c r="C2" t="s">
-        <v>96</v>
+      <c r="C2" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="D2" t="s">
         <v>96</v>
@@ -2091,8 +2092,8 @@
       <c r="B3" t="s">
         <v>95</v>
       </c>
-      <c r="C3" t="s">
-        <v>96</v>
+      <c r="C3" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>96</v>
